--- a/HEBCard/Documentos/PruebasUnitarias/ABCSocios/Evidencia - Enabling_ABCSocios_HEBCard.xlsx
+++ b/HEBCard/Documentos/PruebasUnitarias/ABCSocios/Evidencia - Enabling_ABCSocios_HEBCard.xlsx
@@ -1,37 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositorios\HEB\HEBCard\Documentos\PruebasUnitarias\ABCComisionistas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositorios\HEB-HUB\HEBCard\Documentos\PruebasUnitarias\ABCSocios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{629DBA9A-DD07-4BD1-8B35-D0FA904AA221}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA410F7-C3F2-4151-B65E-BE0BEED13D22}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="15150" tabRatio="927" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="15150" tabRatio="927" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instrucciones" sheetId="4" r:id="rId1"/>
     <sheet name="Especificación" sheetId="1" r:id="rId2"/>
-    <sheet name="E1-ComunicarComisionista" sheetId="6" r:id="rId3"/>
-    <sheet name="E1-AuditarComisionista" sheetId="19" r:id="rId4"/>
-    <sheet name="E2-Sin conexion Base Datos " sheetId="26" r:id="rId5"/>
-    <sheet name="E3-Sin permiso HEBSecurity" sheetId="25" r:id="rId6"/>
+    <sheet name="E1-ComunicarSocio" sheetId="6" r:id="rId3"/>
+    <sheet name="E3-CambiarSocio" sheetId="27" r:id="rId4"/>
+    <sheet name="E2-BajaSocio" sheetId="28" r:id="rId5"/>
+    <sheet name="E7-ErrorSocioBaja" sheetId="29" r:id="rId6"/>
+    <sheet name="E2-Sin conexion Base Datos " sheetId="26" r:id="rId7"/>
+    <sheet name="E3-Sin permiso HEBSecurity" sheetId="25" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'E1-AuditarComisionista'!$A$37:$BM$50</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'E1-ComunicarComisionista'!$A$33:$BM$46</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'E2-Sin conexion Base Datos '!$A$38:$BM$51</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'E3-Sin permiso HEBSecurity'!$A$41:$BM$54</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'E1-ComunicarSocio'!$A$33:$BM$46</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'E2-BajaSocio'!$A$33:$BM$46</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'E2-Sin conexion Base Datos '!$A$38:$BM$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'E3-CambiarSocio'!$A$33:$BM$46</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'E3-Sin permiso HEBSecurity'!$A$41:$BM$54</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'E7-ErrorSocioBaja'!$A$33:$BM$46</definedName>
   </definedNames>
-  <calcPr calcId="191029" refMode="R1C1"/>
+  <calcPr calcId="181029" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="68">
   <si>
     <t>Evidencia de Ejecución</t>
   </si>
@@ -243,9 +247,6 @@
     <t>Luis Castor</t>
   </si>
   <si>
-    <t>Registro en la tabla DBTIB..tib_log</t>
-  </si>
-  <si>
     <t xml:space="preserve">       - Registro del error en la tabla tib_log_exception
        -Correo de notificacion</t>
   </si>
@@ -254,36 +255,40 @@
        -Correo de notificacion</t>
   </si>
   <si>
-    <t>Proyecto HEBCard ABC Comisionistas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E1.Comunicar/Auditar Comisionista.
-E2.Sin conexion Base Datos.
-E3.Sin permiso HEBSecurity                                                                                                                                                                                                                                                      
-</t>
-  </si>
-  <si>
-    <t>1. Comunicar Comisionista
-2. Administrar los errores de la integración y notificación via Email.                                                                                                                                                                                                                      3. Auditar Comisionista</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-       - Comisionistas en HEBCard
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comunicar Comisionistas
-</t>
-  </si>
-  <si>
-    <t>Auditar Comisionistas</t>
-  </si>
-  <si>
     <t xml:space="preserve">Se comunica el comisionista, la integracion debe generar una excepcion debido a la desconexion al servidor de base datos
 </t>
   </si>
   <si>
     <t xml:space="preserve">Se comunica el comisionista, la integracion debe generar una excepcion debido a que el applicationId no tiene permisos garantizados
+</t>
+  </si>
+  <si>
+    <t>Proyecto HEBCard ABC Socios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E1.Comunicar/Auditar alta socio.
+E2.Comunicar/Auditar baja socio.                                                                                                                                                                                            
+E3.Comunicar/Auditar cambio socio.                                                                                                                                                                                            E4.Recontratacion.                                                                                                                                                                                                                                                       E5.Sin conexion a base de datos.                                                                                                                                                                                                                                   E6.Sin permisos HEBSecurity.                                                                                                                                                                                                                          E7.Modificar socio dado de baja.                                                                                                                                                                                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comunicar Socio
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cambio Socio
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+       - Beneficiarios en HEBCard
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baja Socio
 </t>
   </si>
 </sst>
@@ -819,6 +824,57 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -855,12 +911,6 @@
     <xf numFmtId="0" fontId="8" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -884,51 +934,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1084,22 +1089,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>357188</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>345282</xdr:rowOff>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>178593</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1366152</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>64261</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1158374</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>183192</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1">
+        <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBE8D049-CEB8-4439-8550-1A1B339F925C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9310BD05-1047-4357-A660-14BEE345EE6B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1115,8 +1120,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="357188" y="3821907"/>
-          <a:ext cx="5485714" cy="266667"/>
+          <a:off x="285750" y="1726406"/>
+          <a:ext cx="10361905" cy="1314286"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1128,22 +1133,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>404813</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>226219</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>345281</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>747111</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>980970</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>841700</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>92736</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Imagen 4">
+        <xdr:cNvPr id="4" name="Imagen 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9D6460B-C142-4AAC-B296-C8B8BB146382}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77489163-D6AA-4C14-956F-CF64718C4A13}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1159,52 +1164,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="404813" y="1928813"/>
-          <a:ext cx="4819048" cy="838095"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>392906</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>154781</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>846274</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>59352</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Imagen 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A949CF84-DD2C-49C8-B68C-89013229F260}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="392906" y="4369594"/>
-          <a:ext cx="11609524" cy="1428571"/>
+          <a:off x="226219" y="3821906"/>
+          <a:ext cx="10104762" cy="1057143"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1221,22 +1182,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>392906</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>59531</xdr:rowOff>
+      <xdr:colOff>416719</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>214313</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>735204</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>147532</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>60563</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9364</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1">
+        <xdr:cNvPr id="4" name="Imagen 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74469892-E9E3-47B1-A1B8-49868DED8B0B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7DE0127-47A4-4C8E-A4B0-2198FFA55972}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1252,8 +1213,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="392906" y="1809750"/>
-          <a:ext cx="4819048" cy="838095"/>
+          <a:off x="416719" y="1762126"/>
+          <a:ext cx="10800000" cy="1295238"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1265,22 +1226,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>321469</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>369093</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>59531</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>774837</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>95071</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1041717</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>183198</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 2">
+        <xdr:cNvPr id="5" name="Imagen 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A379C8B5-C604-4A76-B6D8-763FE5202285}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCB48672-2627-4D9A-874B-B1DC84732EF9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1296,8 +1257,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="321469" y="3881438"/>
-          <a:ext cx="11609524" cy="1428571"/>
+          <a:off x="369093" y="3893344"/>
+          <a:ext cx="10161905" cy="1266667"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1310,6 +1271,236 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>476249</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>167712</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>166526</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F708D244-29C2-4294-BB8D-CEBB65504202}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="476249" y="1738312"/>
+          <a:ext cx="10847619" cy="1285714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>392906</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>273844</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>846482</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>68918</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagen 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36B2F5FD-D6E3-4AF6-A7DD-0FBCACCF1AAA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="392906" y="3750469"/>
+          <a:ext cx="9942857" cy="1104762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>178594</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>24844</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>164145</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8317AB2-977B-4FDC-837C-2751C05BFD0A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="381000" y="1726407"/>
+          <a:ext cx="10800000" cy="1295238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>404813</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1067704</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>108647</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagen 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{727BC872-2A81-43F7-9239-73E60E1BD00B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="404813" y="5738814"/>
+          <a:ext cx="11819047" cy="7133333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>321469</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>863159</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>97424</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagen 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C227EDF-335D-4F78-A158-183EF2B45E5F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="476250" y="3798094"/>
+          <a:ext cx="9876190" cy="1657143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1446,7 +1637,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1906,8 +2097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:X54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
@@ -2670,7 +2861,7 @@
   <dimension ref="C3:V26"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18:S18"/>
+      <selection activeCell="C17" sqref="C17:S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2698,16 +2889,16 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:22" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="O3" s="59" t="s">
+      <c r="O3" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="P3" s="59"/>
-      <c r="Q3" s="59"/>
-      <c r="R3" s="59"/>
-      <c r="S3" s="59"/>
-      <c r="T3" s="59"/>
-      <c r="U3" s="59"/>
-      <c r="V3" s="59"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
+      <c r="S3" s="37"/>
+      <c r="T3" s="37"/>
+      <c r="U3" s="37"/>
+      <c r="V3" s="37"/>
     </row>
     <row r="4" spans="3:22" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="10"/>
@@ -2739,184 +2930,184 @@
       <c r="D6" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="62" t="s">
+      <c r="E6" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="63"/>
-      <c r="G6" s="64"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="44"/>
       <c r="H6" s="12"/>
     </row>
     <row r="7" spans="3:22" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="65" t="s">
+      <c r="C7" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="66"/>
-      <c r="K7" s="66"/>
-      <c r="L7" s="66"/>
-      <c r="M7" s="66"/>
-      <c r="N7" s="66"/>
-      <c r="O7" s="66"/>
-      <c r="P7" s="66"/>
-      <c r="Q7" s="66"/>
-      <c r="R7" s="66"/>
-      <c r="S7" s="67"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="46"/>
+      <c r="N7" s="46"/>
+      <c r="O7" s="46"/>
+      <c r="P7" s="46"/>
+      <c r="Q7" s="46"/>
+      <c r="R7" s="46"/>
+      <c r="S7" s="47"/>
       <c r="T7" s="20"/>
       <c r="U7" s="20"/>
       <c r="V7" s="20"/>
     </row>
     <row r="8" spans="3:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="68" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" s="69"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="69"/>
-      <c r="H8" s="69"/>
-      <c r="I8" s="69"/>
-      <c r="J8" s="69"/>
-      <c r="K8" s="69"/>
-      <c r="L8" s="69"/>
-      <c r="M8" s="69"/>
-      <c r="N8" s="69"/>
-      <c r="O8" s="69"/>
-      <c r="P8" s="69"/>
-      <c r="Q8" s="69"/>
-      <c r="R8" s="69"/>
-      <c r="S8" s="70"/>
+      <c r="C8" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="49"/>
+      <c r="N8" s="49"/>
+      <c r="O8" s="49"/>
+      <c r="P8" s="49"/>
+      <c r="Q8" s="49"/>
+      <c r="R8" s="49"/>
+      <c r="S8" s="50"/>
       <c r="T8" s="19"/>
       <c r="U8" s="19"/>
       <c r="V8" s="19"/>
     </row>
     <row r="9" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C9" s="71"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="72"/>
-      <c r="G9" s="72"/>
-      <c r="H9" s="72"/>
-      <c r="I9" s="72"/>
-      <c r="J9" s="72"/>
-      <c r="K9" s="72"/>
-      <c r="L9" s="72"/>
-      <c r="M9" s="72"/>
-      <c r="N9" s="72"/>
-      <c r="O9" s="72"/>
-      <c r="P9" s="72"/>
-      <c r="Q9" s="72"/>
-      <c r="R9" s="72"/>
-      <c r="S9" s="73"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="52"/>
+      <c r="O9" s="52"/>
+      <c r="P9" s="52"/>
+      <c r="Q9" s="52"/>
+      <c r="R9" s="52"/>
+      <c r="S9" s="53"/>
       <c r="T9" s="19"/>
       <c r="U9" s="19"/>
       <c r="V9" s="19"/>
     </row>
     <row r="10" spans="3:22" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="37" t="s">
+      <c r="C10" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="40" t="s">
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="I10" s="38"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="39"/>
-      <c r="L10" s="49" t="s">
+      <c r="I10" s="55"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="56"/>
+      <c r="L10" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="M10" s="50"/>
-      <c r="N10" s="50"/>
-      <c r="O10" s="61"/>
-      <c r="P10" s="49" t="s">
+      <c r="M10" s="40"/>
+      <c r="N10" s="40"/>
+      <c r="O10" s="41"/>
+      <c r="P10" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="Q10" s="50"/>
-      <c r="R10" s="50"/>
-      <c r="S10" s="51"/>
-      <c r="T10" s="60"/>
-      <c r="U10" s="60"/>
-      <c r="V10" s="60"/>
+      <c r="Q10" s="40"/>
+      <c r="R10" s="40"/>
+      <c r="S10" s="66"/>
+      <c r="T10" s="38"/>
+      <c r="U10" s="38"/>
+      <c r="V10" s="38"/>
     </row>
     <row r="11" spans="3:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="41">
-        <v>43553</v>
-      </c>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="42"/>
-      <c r="L11" s="42" t="s">
+      <c r="C11" s="58">
+        <v>43615</v>
+      </c>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="59"/>
+      <c r="L11" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="M11" s="42"/>
-      <c r="N11" s="42"/>
-      <c r="O11" s="42"/>
-      <c r="P11" s="42" t="s">
+      <c r="M11" s="59"/>
+      <c r="N11" s="59"/>
+      <c r="O11" s="59"/>
+      <c r="P11" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="Q11" s="42"/>
-      <c r="R11" s="42"/>
-      <c r="S11" s="52"/>
-      <c r="T11" s="45"/>
-      <c r="U11" s="45"/>
-      <c r="V11" s="45"/>
+      <c r="Q11" s="59"/>
+      <c r="R11" s="59"/>
+      <c r="S11" s="67"/>
+      <c r="T11" s="62"/>
+      <c r="U11" s="62"/>
+      <c r="V11" s="62"/>
     </row>
     <row r="12" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C12" s="43"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="42"/>
-      <c r="L12" s="42"/>
-      <c r="M12" s="42"/>
-      <c r="N12" s="42"/>
-      <c r="O12" s="42"/>
-      <c r="P12" s="42"/>
-      <c r="Q12" s="42"/>
-      <c r="R12" s="42"/>
-      <c r="S12" s="52"/>
-      <c r="T12" s="45"/>
-      <c r="U12" s="45"/>
-      <c r="V12" s="45"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="59"/>
+      <c r="J12" s="59"/>
+      <c r="K12" s="59"/>
+      <c r="L12" s="59"/>
+      <c r="M12" s="59"/>
+      <c r="N12" s="59"/>
+      <c r="O12" s="59"/>
+      <c r="P12" s="59"/>
+      <c r="Q12" s="59"/>
+      <c r="R12" s="59"/>
+      <c r="S12" s="67"/>
+      <c r="T12" s="62"/>
+      <c r="U12" s="62"/>
+      <c r="V12" s="62"/>
     </row>
     <row r="13" spans="3:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="43"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="42"/>
-      <c r="M13" s="42"/>
-      <c r="N13" s="42"/>
-      <c r="O13" s="42"/>
-      <c r="P13" s="42"/>
-      <c r="Q13" s="42"/>
-      <c r="R13" s="42"/>
-      <c r="S13" s="52"/>
-      <c r="T13" s="45"/>
-      <c r="U13" s="45"/>
-      <c r="V13" s="45"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="59"/>
+      <c r="O13" s="59"/>
+      <c r="P13" s="59"/>
+      <c r="Q13" s="59"/>
+      <c r="R13" s="59"/>
+      <c r="S13" s="67"/>
+      <c r="T13" s="62"/>
+      <c r="U13" s="62"/>
+      <c r="V13" s="62"/>
     </row>
     <row r="14" spans="3:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="21" t="s">
@@ -2943,113 +3134,111 @@
       <c r="V14" s="20"/>
     </row>
     <row r="15" spans="3:22" ht="209.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="53" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" s="54"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="54"/>
-      <c r="H15" s="54"/>
-      <c r="I15" s="54"/>
-      <c r="J15" s="54"/>
-      <c r="K15" s="54"/>
-      <c r="L15" s="54"/>
-      <c r="M15" s="54"/>
-      <c r="N15" s="54"/>
-      <c r="O15" s="54"/>
-      <c r="P15" s="54"/>
-      <c r="Q15" s="54"/>
-      <c r="R15" s="54"/>
-      <c r="S15" s="55"/>
+      <c r="C15" s="68" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="69"/>
+      <c r="I15" s="69"/>
+      <c r="J15" s="69"/>
+      <c r="K15" s="69"/>
+      <c r="L15" s="69"/>
+      <c r="M15" s="69"/>
+      <c r="N15" s="69"/>
+      <c r="O15" s="69"/>
+      <c r="P15" s="69"/>
+      <c r="Q15" s="69"/>
+      <c r="R15" s="69"/>
+      <c r="S15" s="70"/>
     </row>
     <row r="16" spans="3:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="56" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="57"/>
-      <c r="I16" s="57"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="57"/>
-      <c r="L16" s="57"/>
-      <c r="M16" s="57"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="57"/>
-      <c r="P16" s="57"/>
-      <c r="Q16" s="57"/>
-      <c r="R16" s="57"/>
-      <c r="S16" s="58"/>
+      <c r="C16" s="71"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="72"/>
+      <c r="H16" s="72"/>
+      <c r="I16" s="72"/>
+      <c r="J16" s="72"/>
+      <c r="K16" s="72"/>
+      <c r="L16" s="72"/>
+      <c r="M16" s="72"/>
+      <c r="N16" s="72"/>
+      <c r="O16" s="72"/>
+      <c r="P16" s="72"/>
+      <c r="Q16" s="72"/>
+      <c r="R16" s="72"/>
+      <c r="S16" s="73"/>
       <c r="T16" s="20"/>
       <c r="U16" s="20"/>
       <c r="V16" s="20"/>
     </row>
     <row r="17" spans="3:22" ht="86.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="53" t="s">
-        <v>62</v>
-      </c>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="54"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="54"/>
-      <c r="J17" s="54"/>
-      <c r="K17" s="54"/>
-      <c r="L17" s="54"/>
-      <c r="M17" s="54"/>
-      <c r="N17" s="54"/>
-      <c r="O17" s="54"/>
-      <c r="P17" s="54"/>
-      <c r="Q17" s="54"/>
-      <c r="R17" s="54"/>
-      <c r="S17" s="55"/>
+      <c r="C17" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="69"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="69"/>
+      <c r="H17" s="69"/>
+      <c r="I17" s="69"/>
+      <c r="J17" s="69"/>
+      <c r="K17" s="69"/>
+      <c r="L17" s="69"/>
+      <c r="M17" s="69"/>
+      <c r="N17" s="69"/>
+      <c r="O17" s="69"/>
+      <c r="P17" s="69"/>
+      <c r="Q17" s="69"/>
+      <c r="R17" s="69"/>
+      <c r="S17" s="70"/>
     </row>
     <row r="18" spans="3:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="56" t="s">
+      <c r="C18" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="57"/>
-      <c r="I18" s="57"/>
-      <c r="J18" s="57"/>
-      <c r="K18" s="57"/>
-      <c r="L18" s="57"/>
-      <c r="M18" s="57"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="57"/>
-      <c r="P18" s="57"/>
-      <c r="Q18" s="57"/>
-      <c r="R18" s="57"/>
-      <c r="S18" s="58"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="72"/>
+      <c r="I18" s="72"/>
+      <c r="J18" s="72"/>
+      <c r="K18" s="72"/>
+      <c r="L18" s="72"/>
+      <c r="M18" s="72"/>
+      <c r="N18" s="72"/>
+      <c r="O18" s="72"/>
+      <c r="P18" s="72"/>
+      <c r="Q18" s="72"/>
+      <c r="R18" s="72"/>
+      <c r="S18" s="73"/>
       <c r="T18" s="20"/>
       <c r="U18" s="20"/>
       <c r="V18" s="20"/>
     </row>
     <row r="19" spans="3:22" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="53"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="54"/>
-      <c r="G19" s="54"/>
-      <c r="H19" s="54"/>
-      <c r="I19" s="54"/>
-      <c r="J19" s="54"/>
-      <c r="K19" s="54"/>
-      <c r="L19" s="54"/>
-      <c r="M19" s="54"/>
-      <c r="N19" s="54"/>
-      <c r="O19" s="54"/>
-      <c r="P19" s="54"/>
-      <c r="Q19" s="54"/>
-      <c r="R19" s="54"/>
-      <c r="S19" s="55"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="69"/>
+      <c r="H19" s="69"/>
+      <c r="I19" s="69"/>
+      <c r="J19" s="69"/>
+      <c r="K19" s="69"/>
+      <c r="L19" s="69"/>
+      <c r="M19" s="69"/>
+      <c r="N19" s="69"/>
+      <c r="O19" s="69"/>
+      <c r="P19" s="69"/>
+      <c r="Q19" s="69"/>
+      <c r="R19" s="69"/>
+      <c r="S19" s="70"/>
     </row>
     <row r="20" spans="3:22" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="14"/>
@@ -3118,20 +3307,20 @@
       <c r="V22" s="15"/>
     </row>
     <row r="23" spans="3:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C23" s="46" t="s">
+      <c r="C23" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="46"/>
+      <c r="D23" s="63"/>
       <c r="E23" s="17" t="s">
         <v>35</v>
       </c>
       <c r="F23" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="G23" s="47" t="s">
+      <c r="G23" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="H23" s="48"/>
+      <c r="H23" s="65"/>
       <c r="I23" s="16"/>
     </row>
     <row r="26" spans="3:22" x14ac:dyDescent="0.25">
@@ -3160,12 +3349,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="O3:V3"/>
-    <mergeCell ref="T10:V10"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="C7:S7"/>
-    <mergeCell ref="C8:S9"/>
     <mergeCell ref="C26:V26"/>
     <mergeCell ref="C10:G10"/>
     <mergeCell ref="H10:K10"/>
@@ -3182,6 +3365,12 @@
     <mergeCell ref="C16:S16"/>
     <mergeCell ref="C18:S18"/>
     <mergeCell ref="C19:S19"/>
+    <mergeCell ref="O3:V3"/>
+    <mergeCell ref="T10:V10"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="C7:S7"/>
+    <mergeCell ref="C8:S9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -3204,7 +3393,7 @@
   <dimension ref="A1:O190"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:N2"/>
+      <selection activeCell="A4" sqref="A4:N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -3270,7 +3459,7 @@
     </row>
     <row r="4" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="77" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B4" s="74"/>
       <c r="C4" s="74"/>
@@ -3512,14 +3701,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43EB0D6B-997C-4758-A61A-D08FDF9F26F1}">
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:N194"/>
+  <dimension ref="A1:O190"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="A4" sqref="A4:N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -3542,12 +3731,12 @@
     <col min="31" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="74" t="s">
         <v>65</v>
       </c>
@@ -3565,7 +3754,7 @@
       <c r="M2" s="75"/>
       <c r="N2" s="75"/>
     </row>
-    <row r="3" spans="1:14" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="76" t="s">
         <v>54</v>
       </c>
@@ -3583,9 +3772,9 @@
       <c r="M3" s="76"/>
       <c r="N3" s="76"/>
     </row>
-    <row r="4" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="77" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="B4" s="74"/>
       <c r="C4" s="74"/>
@@ -3601,54 +3790,65 @@
       <c r="M4" s="74"/>
       <c r="N4" s="74"/>
     </row>
-    <row r="6" spans="1:14" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="9" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="27"/>
     </row>
-    <row r="8" spans="1:14" s="24" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="30"/>
-    </row>
-    <row r="9" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:14" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="26" t="s">
+    <row r="8" spans="1:15" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
+    </row>
+    <row r="9" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:15" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="26" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="2:10" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="30"/>
-    </row>
-    <row r="18" spans="2:10" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="2:10" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="2:10" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="2:10" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="2:10" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="J22" s="25"/>
-    </row>
-    <row r="23" spans="2:10" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="2:10" s="24" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="2:10" s="24" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="2:10" s="24" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="2:10" s="24" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="2:10" s="24" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="2:10" s="24" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="2:10" s="24" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="2:10" s="24" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="2:10" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="33" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="36" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="37" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:15" s="24" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:15" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:15" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="10:10" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="10:10" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="10:10" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J19" s="25"/>
+    </row>
+    <row r="20" spans="10:10" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="10:10" s="24" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="10:10" s="24" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="10:10" s="24" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="10:10" s="24" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="10:10" s="24" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="10:10" s="24" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="10:10" s="24" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="10:10" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="10:10" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="10:10" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="10:10" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="10:10" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" s="24" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="35" s="24" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="36" s="24" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="37" s="24" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <row r="38" s="24" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <row r="39" s="24" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <row r="40" s="24" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
@@ -3658,10 +3858,10 @@
     <row r="44" s="24" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <row r="45" s="24" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <row r="46" s="24" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="47" s="24" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="48" s="24" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="49" s="24" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="50" s="24" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="47" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="51" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="52" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="53" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -3802,10 +4002,6 @@
     <row r="188" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="189" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="190" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="191" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="192" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="193" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="194" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="3">
@@ -3820,6 +4016,636 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{179B310A-D22A-4E74-B00A-C2B7ADEF6C10}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:O190"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:N4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.28515625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="59" style="5" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="5" customWidth="1"/>
+    <col min="7" max="7" width="25" style="5" customWidth="1"/>
+    <col min="8" max="8" width="28.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" style="5" customWidth="1"/>
+    <col min="10" max="15" width="9.140625" style="5"/>
+    <col min="16" max="16" width="12.7109375" style="5" customWidth="1"/>
+    <col min="17" max="26" width="9.140625" style="5"/>
+    <col min="27" max="27" width="16.140625" style="5" customWidth="1"/>
+    <col min="28" max="29" width="9.140625" style="5"/>
+    <col min="30" max="30" width="12.85546875" style="5" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="74" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="75"/>
+      <c r="N2" s="75"/>
+    </row>
+    <row r="3" spans="1:15" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="76" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="76"/>
+      <c r="N3" s="76"/>
+    </row>
+    <row r="4" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="77" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="74"/>
+      <c r="N4" s="74"/>
+    </row>
+    <row r="6" spans="1:15" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="27"/>
+    </row>
+    <row r="8" spans="1:15" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
+    </row>
+    <row r="9" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:15" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" s="24" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:15" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:15" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="10:10" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="10:10" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="10:10" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J19" s="25"/>
+    </row>
+    <row r="20" spans="10:10" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="10:10" s="24" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="10:10" s="24" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="10:10" s="24" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="10:10" s="24" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="10:10" s="24" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="10:10" s="24" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="10:10" s="24" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="10:10" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="10:10" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="10:10" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="10:10" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="10:10" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" s="24" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="35" s="24" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="36" s="24" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="37" s="24" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="38" s="24" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="39" s="24" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="40" s="24" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="41" s="24" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="42" s="24" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="43" s="24" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="44" s="24" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="45" s="24" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="46" s="24" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="47" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="83" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="84" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="85" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="86" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="87" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="88" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="89" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="90" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="91" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="92" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="93" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="94" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="95" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="96" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="97" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="98" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="99" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="100" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="101" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="102" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="103" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="104" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="105" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="106" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="107" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="108" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="109" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="110" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="111" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="112" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="113" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="114" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="115" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="116" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="117" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="118" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="119" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="120" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="121" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="122" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="123" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="124" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="125" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="126" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="127" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="128" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="129" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="130" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="131" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="132" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="133" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="134" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="135" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="136" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="137" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="138" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="139" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="140" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="141" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="142" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="143" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="144" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="145" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="146" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="147" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="148" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="149" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="150" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="151" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="152" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="153" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="154" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="155" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="156" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="157" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="158" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="159" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="160" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="161" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="162" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="163" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="164" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="165" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="166" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="167" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="168" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="169" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="170" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="171" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="172" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="173" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="174" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="175" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="176" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="177" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="178" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="179" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="180" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="181" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="182" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="183" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="184" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="185" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="186" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="187" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="188" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="189" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="190" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <dataConsolidate/>
+  <mergeCells count="3">
+    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="A3:N3"/>
+    <mergeCell ref="A4:N4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E377A3E9-A013-4535-9877-6E4CF98C4C9A}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:O190"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.28515625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="59" style="5" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="5" customWidth="1"/>
+    <col min="7" max="7" width="25" style="5" customWidth="1"/>
+    <col min="8" max="8" width="28.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" style="5" customWidth="1"/>
+    <col min="10" max="15" width="9.140625" style="5"/>
+    <col min="16" max="16" width="12.7109375" style="5" customWidth="1"/>
+    <col min="17" max="26" width="9.140625" style="5"/>
+    <col min="27" max="27" width="16.140625" style="5" customWidth="1"/>
+    <col min="28" max="29" width="9.140625" style="5"/>
+    <col min="30" max="30" width="12.85546875" style="5" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="74" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="75"/>
+      <c r="N2" s="75"/>
+    </row>
+    <row r="3" spans="1:15" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="76" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="76"/>
+      <c r="N3" s="76"/>
+    </row>
+    <row r="4" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="77" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="74"/>
+      <c r="N4" s="74"/>
+    </row>
+    <row r="6" spans="1:15" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="27"/>
+    </row>
+    <row r="8" spans="1:15" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
+    </row>
+    <row r="9" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:15" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" s="24" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:15" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:15" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="10:10" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="10:10" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="10:10" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J19" s="25"/>
+    </row>
+    <row r="20" spans="10:10" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="10:10" s="24" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="10:10" s="24" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="10:10" s="24" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="10:10" s="24" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="10:10" s="24" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="10:10" s="24" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="10:10" s="24" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="10:10" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="10:10" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="10:10" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="10:10" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="10:10" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" s="24" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="35" s="24" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="36" s="24" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="37" s="24" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="38" s="24" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="39" s="24" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="40" s="24" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="41" s="24" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="42" s="24" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="43" s="24" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="44" s="24" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="45" s="24" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="46" s="24" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="47" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="83" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="84" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="85" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="86" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="87" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="88" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="89" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="90" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="91" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="92" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="93" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="94" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="95" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="96" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="97" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="98" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="99" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="100" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="101" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="102" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="103" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="104" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="105" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="106" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="107" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="108" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="109" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="110" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="111" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="112" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="113" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="114" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="115" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="116" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="117" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="118" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="119" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="120" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="121" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="122" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="123" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="124" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="125" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="126" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="127" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="128" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="129" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="130" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="131" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="132" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="133" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="134" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="135" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="136" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="137" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="138" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="139" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="140" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="141" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="142" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="143" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="144" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="145" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="146" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="147" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="148" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="149" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="150" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="151" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="152" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="153" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="154" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="155" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="156" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="157" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="158" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="159" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="160" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="161" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="162" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="163" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="164" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="165" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="166" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="167" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="168" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="169" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="170" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="171" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="172" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="173" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="174" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="175" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="176" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="177" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="178" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="179" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="180" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="181" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="182" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="183" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="184" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="185" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="186" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="187" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="188" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="189" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="190" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <dataConsolidate/>
+  <mergeCells count="3">
+    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="A3:N3"/>
+    <mergeCell ref="A4:N4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5BA3E93-2F30-40F7-BF6D-F1716000F2A3}">
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
@@ -3857,7 +4683,7 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="74" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B2" s="75"/>
       <c r="C2" s="75"/>
@@ -3893,7 +4719,7 @@
     </row>
     <row r="4" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="77" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B4" s="74"/>
       <c r="C4" s="74"/>
@@ -4143,7 +4969,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6784EC3F-8AF4-43AA-B5D2-3219028ED1C8}">
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
@@ -4181,7 +5007,7 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="74" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B2" s="75"/>
       <c r="C2" s="75"/>
@@ -4217,7 +5043,7 @@
     </row>
     <row r="4" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="77" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" s="74"/>
       <c r="C4" s="74"/>
@@ -4471,9 +5297,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4526,24 +5355,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CB4378F-1076-4FCD-8176-ACA22C9C1139}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{104F6682-638E-41C9-B86D-9C61515F3EFA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4564,9 +5384,15 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{104F6682-638E-41C9-B86D-9C61515F3EFA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CB4378F-1076-4FCD-8176-ACA22C9C1139}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/HEBCard/Documentos/PruebasUnitarias/ABCSocios/Evidencia - Enabling_ABCSocios_HEBCard.xlsx
+++ b/HEBCard/Documentos/PruebasUnitarias/ABCSocios/Evidencia - Enabling_ABCSocios_HEBCard.xlsx
@@ -8,34 +8,36 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositorios\HEB-HUB\HEBCard\Documentos\PruebasUnitarias\ABCSocios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA410F7-C3F2-4151-B65E-BE0BEED13D22}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC401FB7-E7A7-4EBE-BCC0-D5823C6AE039}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="15150" tabRatio="927" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="15150" tabRatio="927" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instrucciones" sheetId="4" r:id="rId1"/>
     <sheet name="Especificación" sheetId="1" r:id="rId2"/>
     <sheet name="E1-ComunicarSocio" sheetId="6" r:id="rId3"/>
-    <sheet name="E3-CambiarSocio" sheetId="27" r:id="rId4"/>
-    <sheet name="E2-BajaSocio" sheetId="28" r:id="rId5"/>
-    <sheet name="E7-ErrorSocioBaja" sheetId="29" r:id="rId6"/>
-    <sheet name="E2-Sin conexion Base Datos " sheetId="26" r:id="rId7"/>
-    <sheet name="E3-Sin permiso HEBSecurity" sheetId="25" r:id="rId8"/>
+    <sheet name="E2-BajaSocio" sheetId="28" r:id="rId4"/>
+    <sheet name="E3-CambiarSocio" sheetId="27" r:id="rId5"/>
+    <sheet name="E4- Recontratacion" sheetId="30" r:id="rId6"/>
+    <sheet name="E5-Sin conexion Base Datos " sheetId="26" r:id="rId7"/>
+    <sheet name="E6-Sin permiso HEBSecurity" sheetId="25" r:id="rId8"/>
+    <sheet name="E7-ErrorSocioBaja" sheetId="29" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'E1-ComunicarSocio'!$A$33:$BM$46</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'E2-BajaSocio'!$A$33:$BM$46</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'E2-Sin conexion Base Datos '!$A$38:$BM$51</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'E3-CambiarSocio'!$A$33:$BM$46</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'E3-Sin permiso HEBSecurity'!$A$41:$BM$54</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'E7-ErrorSocioBaja'!$A$33:$BM$46</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'E2-BajaSocio'!$A$33:$BM$46</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'E3-CambiarSocio'!$A$33:$BM$46</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'E4- Recontratacion'!$A$33:$BM$46</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'E5-Sin conexion Base Datos '!$A$38:$BM$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'E6-Sin permiso HEBSecurity'!$A$41:$BM$54</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'E7-ErrorSocioBaja'!$A$33:$BM$46</definedName>
   </definedNames>
   <calcPr calcId="181029" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="68">
   <si>
     <t>Evidencia de Ejecución</t>
   </si>
@@ -255,14 +257,6 @@
        -Correo de notificacion</t>
   </si>
   <si>
-    <t xml:space="preserve">Se comunica el comisionista, la integracion debe generar una excepcion debido a la desconexion al servidor de base datos
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Se comunica el comisionista, la integracion debe generar una excepcion debido a que el applicationId no tiene permisos garantizados
-</t>
-  </si>
-  <si>
     <t>Proyecto HEBCard ABC Socios</t>
   </si>
   <si>
@@ -289,6 +283,14 @@
   </si>
   <si>
     <t xml:space="preserve">Baja Socio
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se comunica el beneficiario, la integracion debe generar una excepcion debido a la desconexion al servidor de base datos
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se comunica el beneficiario, la integracion debe generar una excepcion debido a que el applicationId no tiene permisos garantizados
 </t>
   </si>
 </sst>
@@ -824,18 +826,78 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="14" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -874,66 +936,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="14" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1182,6 +1184,99 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
+      <xdr:colOff>476249</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>167712</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>166526</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F708D244-29C2-4294-BB8D-CEBB65504202}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="476249" y="1738312"/>
+          <a:ext cx="10847619" cy="1285714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>392906</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>273844</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>846482</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>68918</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagen 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36B2F5FD-D6E3-4AF6-A7DD-0FBCACCF1AAA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="392906" y="3750469"/>
+          <a:ext cx="9942857" cy="1104762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>416719</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>214313</xdr:rowOff>
@@ -1270,27 +1365,27 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>476249</xdr:colOff>
+      <xdr:colOff>285750</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:rowOff>178593</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>167712</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1158374</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>166526</xdr:rowOff>
+      <xdr:rowOff>183192</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Imagen 3">
+        <xdr:cNvPr id="2" name="Imagen 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F708D244-29C2-4294-BB8D-CEBB65504202}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BBADE88-A3EB-4E88-91A2-A9581F91FFCA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1306,8 +1401,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="476249" y="1738312"/>
-          <a:ext cx="10847619" cy="1285714"/>
+          <a:off x="285750" y="1721643"/>
+          <a:ext cx="10369049" cy="1319049"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1319,22 +1414,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>392906</xdr:colOff>
+      <xdr:colOff>273843</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>273844</xdr:rowOff>
+      <xdr:rowOff>309563</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>846482</xdr:colOff>
+      <xdr:colOff>841705</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>68918</xdr:rowOff>
+      <xdr:rowOff>123685</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Imagen 4">
+        <xdr:cNvPr id="4" name="Imagen 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36B2F5FD-D6E3-4AF6-A7DD-0FBCACCF1AAA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92D17DDF-39EC-4426-9F9A-D737C9E00248}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1350,8 +1445,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="392906" y="3750469"/>
-          <a:ext cx="9942857" cy="1104762"/>
+          <a:off x="273843" y="3786188"/>
+          <a:ext cx="10057143" cy="1123810"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1363,7 +1458,281 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>226218</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1063124</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1111879</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagen 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4D2B0ED-E856-4DC8-B6D1-B8B7D07DF32F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="190500" y="1893093"/>
+          <a:ext cx="10361905" cy="1314286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>273845</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1784356</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>27959</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagen 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92398E65-E64C-4254-9758-74F158CD763D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="273845" y="6155532"/>
+          <a:ext cx="12666667" cy="4933333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>381001</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>834577</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>185521</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Imagen 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA30FD6B-4277-4D4A-9FC9-9DE61B6051CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="381001" y="4012407"/>
+          <a:ext cx="9942857" cy="1733333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>381001</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>226219</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1253625</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>171286</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagen 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A919DB70-B251-4994-B6CD-C6EAE32EE351}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="381001" y="1893094"/>
+          <a:ext cx="10361905" cy="1314286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>23812</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>59531</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1253439</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>91987</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0422F47F-88CA-43A5-800B-34234AB994DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="571500" y="5429250"/>
+          <a:ext cx="11838095" cy="7057143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>488156</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>107156</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>970303</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>78370</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Imagen 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79FAC9A2-862A-49E0-9715-DB15EBAFDC80}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="488156" y="3762375"/>
+          <a:ext cx="9971428" cy="1685714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1489,280 +1858,6 @@
         <a:xfrm>
           <a:off x="476250" y="3798094"/>
           <a:ext cx="9876190" cy="1657143"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>297656</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>214312</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>639954</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>623782</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Imagen 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{275C37A2-6321-4BB4-9F3E-B7CFE30C42AD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="297656" y="1881187"/>
-          <a:ext cx="4819048" cy="838095"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>333377</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1110554</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>175562</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8816B88A-61DF-4CDB-A448-41DE173F6144}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="333377" y="4893468"/>
-          <a:ext cx="11933333" cy="5200000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>392907</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>59531</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1513150</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>116555</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{591C3579-60C3-44BE-8E18-74C7DEDD68F0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="392907" y="3524250"/>
-          <a:ext cx="10609524" cy="1009524"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>452438</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>178594</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>794736</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>76095</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Imagen 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6170DC5C-4EA0-45B1-8DC5-C415CBEC09A7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="452438" y="2083594"/>
-          <a:ext cx="4819048" cy="838095"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>380999</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>107157</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1110557</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>6541</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3631CCC-35EF-45DB-AFC4-9B8E8F7A5D04}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="380999" y="5286376"/>
-          <a:ext cx="11885714" cy="4828571"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>381001</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>107156</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1339339</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>21299</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37262F44-3394-4708-ADCA-7CE11DF2632B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="381001" y="3952875"/>
-          <a:ext cx="10447619" cy="1057143"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2860,8 +2955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C3:V26"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:S17"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15:S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2889,16 +2984,16 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:22" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="O3" s="37" t="s">
+      <c r="O3" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="37"/>
-      <c r="S3" s="37"/>
-      <c r="T3" s="37"/>
-      <c r="U3" s="37"/>
-      <c r="V3" s="37"/>
+      <c r="P3" s="59"/>
+      <c r="Q3" s="59"/>
+      <c r="R3" s="59"/>
+      <c r="S3" s="59"/>
+      <c r="T3" s="59"/>
+      <c r="U3" s="59"/>
+      <c r="V3" s="59"/>
     </row>
     <row r="4" spans="3:22" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="10"/>
@@ -2930,184 +3025,184 @@
       <c r="D6" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="42" t="s">
+      <c r="E6" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="43"/>
-      <c r="G6" s="44"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="64"/>
       <c r="H6" s="12"/>
     </row>
     <row r="7" spans="3:22" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="45" t="s">
+      <c r="C7" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="46"/>
-      <c r="M7" s="46"/>
-      <c r="N7" s="46"/>
-      <c r="O7" s="46"/>
-      <c r="P7" s="46"/>
-      <c r="Q7" s="46"/>
-      <c r="R7" s="46"/>
-      <c r="S7" s="47"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="66"/>
+      <c r="K7" s="66"/>
+      <c r="L7" s="66"/>
+      <c r="M7" s="66"/>
+      <c r="N7" s="66"/>
+      <c r="O7" s="66"/>
+      <c r="P7" s="66"/>
+      <c r="Q7" s="66"/>
+      <c r="R7" s="66"/>
+      <c r="S7" s="67"/>
       <c r="T7" s="20"/>
       <c r="U7" s="20"/>
       <c r="V7" s="20"/>
     </row>
     <row r="8" spans="3:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="48" t="s">
-        <v>61</v>
-      </c>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="49"/>
-      <c r="L8" s="49"/>
-      <c r="M8" s="49"/>
-      <c r="N8" s="49"/>
-      <c r="O8" s="49"/>
-      <c r="P8" s="49"/>
-      <c r="Q8" s="49"/>
-      <c r="R8" s="49"/>
-      <c r="S8" s="50"/>
+      <c r="C8" s="68" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="69"/>
+      <c r="H8" s="69"/>
+      <c r="I8" s="69"/>
+      <c r="J8" s="69"/>
+      <c r="K8" s="69"/>
+      <c r="L8" s="69"/>
+      <c r="M8" s="69"/>
+      <c r="N8" s="69"/>
+      <c r="O8" s="69"/>
+      <c r="P8" s="69"/>
+      <c r="Q8" s="69"/>
+      <c r="R8" s="69"/>
+      <c r="S8" s="70"/>
       <c r="T8" s="19"/>
       <c r="U8" s="19"/>
       <c r="V8" s="19"/>
     </row>
     <row r="9" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C9" s="51"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="52"/>
-      <c r="L9" s="52"/>
-      <c r="M9" s="52"/>
-      <c r="N9" s="52"/>
-      <c r="O9" s="52"/>
-      <c r="P9" s="52"/>
-      <c r="Q9" s="52"/>
-      <c r="R9" s="52"/>
-      <c r="S9" s="53"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="72"/>
+      <c r="J9" s="72"/>
+      <c r="K9" s="72"/>
+      <c r="L9" s="72"/>
+      <c r="M9" s="72"/>
+      <c r="N9" s="72"/>
+      <c r="O9" s="72"/>
+      <c r="P9" s="72"/>
+      <c r="Q9" s="72"/>
+      <c r="R9" s="72"/>
+      <c r="S9" s="73"/>
       <c r="T9" s="19"/>
       <c r="U9" s="19"/>
       <c r="V9" s="19"/>
     </row>
     <row r="10" spans="3:22" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="54" t="s">
+      <c r="C10" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="57" t="s">
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="I10" s="55"/>
-      <c r="J10" s="55"/>
-      <c r="K10" s="56"/>
-      <c r="L10" s="39" t="s">
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="M10" s="40"/>
-      <c r="N10" s="40"/>
-      <c r="O10" s="41"/>
-      <c r="P10" s="39" t="s">
+      <c r="M10" s="50"/>
+      <c r="N10" s="50"/>
+      <c r="O10" s="61"/>
+      <c r="P10" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="Q10" s="40"/>
-      <c r="R10" s="40"/>
-      <c r="S10" s="66"/>
-      <c r="T10" s="38"/>
-      <c r="U10" s="38"/>
-      <c r="V10" s="38"/>
+      <c r="Q10" s="50"/>
+      <c r="R10" s="50"/>
+      <c r="S10" s="51"/>
+      <c r="T10" s="60"/>
+      <c r="U10" s="60"/>
+      <c r="V10" s="60"/>
     </row>
     <row r="11" spans="3:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="58">
+      <c r="C11" s="41">
         <v>43615</v>
       </c>
-      <c r="D11" s="59"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="61"/>
-      <c r="I11" s="59"/>
-      <c r="J11" s="59"/>
-      <c r="K11" s="59"/>
-      <c r="L11" s="59" t="s">
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="M11" s="59"/>
-      <c r="N11" s="59"/>
-      <c r="O11" s="59"/>
-      <c r="P11" s="59" t="s">
+      <c r="M11" s="42"/>
+      <c r="N11" s="42"/>
+      <c r="O11" s="42"/>
+      <c r="P11" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="Q11" s="59"/>
-      <c r="R11" s="59"/>
-      <c r="S11" s="67"/>
-      <c r="T11" s="62"/>
-      <c r="U11" s="62"/>
-      <c r="V11" s="62"/>
+      <c r="Q11" s="42"/>
+      <c r="R11" s="42"/>
+      <c r="S11" s="52"/>
+      <c r="T11" s="45"/>
+      <c r="U11" s="45"/>
+      <c r="V11" s="45"/>
     </row>
     <row r="12" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C12" s="60"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="59"/>
-      <c r="I12" s="59"/>
-      <c r="J12" s="59"/>
-      <c r="K12" s="59"/>
-      <c r="L12" s="59"/>
-      <c r="M12" s="59"/>
-      <c r="N12" s="59"/>
-      <c r="O12" s="59"/>
-      <c r="P12" s="59"/>
-      <c r="Q12" s="59"/>
-      <c r="R12" s="59"/>
-      <c r="S12" s="67"/>
-      <c r="T12" s="62"/>
-      <c r="U12" s="62"/>
-      <c r="V12" s="62"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="42"/>
+      <c r="O12" s="42"/>
+      <c r="P12" s="42"/>
+      <c r="Q12" s="42"/>
+      <c r="R12" s="42"/>
+      <c r="S12" s="52"/>
+      <c r="T12" s="45"/>
+      <c r="U12" s="45"/>
+      <c r="V12" s="45"/>
     </row>
     <row r="13" spans="3:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="60"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="59"/>
-      <c r="O13" s="59"/>
-      <c r="P13" s="59"/>
-      <c r="Q13" s="59"/>
-      <c r="R13" s="59"/>
-      <c r="S13" s="67"/>
-      <c r="T13" s="62"/>
-      <c r="U13" s="62"/>
-      <c r="V13" s="62"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="42"/>
+      <c r="O13" s="42"/>
+      <c r="P13" s="42"/>
+      <c r="Q13" s="42"/>
+      <c r="R13" s="42"/>
+      <c r="S13" s="52"/>
+      <c r="T13" s="45"/>
+      <c r="U13" s="45"/>
+      <c r="V13" s="45"/>
     </row>
     <row r="14" spans="3:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="21" t="s">
@@ -3134,111 +3229,111 @@
       <c r="V14" s="20"/>
     </row>
     <row r="15" spans="3:22" ht="209.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="68" t="s">
-        <v>62</v>
-      </c>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="69"/>
-      <c r="H15" s="69"/>
-      <c r="I15" s="69"/>
-      <c r="J15" s="69"/>
-      <c r="K15" s="69"/>
-      <c r="L15" s="69"/>
-      <c r="M15" s="69"/>
-      <c r="N15" s="69"/>
-      <c r="O15" s="69"/>
-      <c r="P15" s="69"/>
-      <c r="Q15" s="69"/>
-      <c r="R15" s="69"/>
-      <c r="S15" s="70"/>
+      <c r="C15" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="54"/>
+      <c r="N15" s="54"/>
+      <c r="O15" s="54"/>
+      <c r="P15" s="54"/>
+      <c r="Q15" s="54"/>
+      <c r="R15" s="54"/>
+      <c r="S15" s="55"/>
     </row>
     <row r="16" spans="3:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="71"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="72"/>
-      <c r="F16" s="72"/>
-      <c r="G16" s="72"/>
-      <c r="H16" s="72"/>
-      <c r="I16" s="72"/>
-      <c r="J16" s="72"/>
-      <c r="K16" s="72"/>
-      <c r="L16" s="72"/>
-      <c r="M16" s="72"/>
-      <c r="N16" s="72"/>
-      <c r="O16" s="72"/>
-      <c r="P16" s="72"/>
-      <c r="Q16" s="72"/>
-      <c r="R16" s="72"/>
-      <c r="S16" s="73"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="57"/>
+      <c r="M16" s="57"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="57"/>
+      <c r="P16" s="57"/>
+      <c r="Q16" s="57"/>
+      <c r="R16" s="57"/>
+      <c r="S16" s="58"/>
       <c r="T16" s="20"/>
       <c r="U16" s="20"/>
       <c r="V16" s="20"/>
     </row>
     <row r="17" spans="3:22" ht="86.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="68" t="s">
-        <v>63</v>
-      </c>
-      <c r="D17" s="69"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="69"/>
-      <c r="H17" s="69"/>
-      <c r="I17" s="69"/>
-      <c r="J17" s="69"/>
-      <c r="K17" s="69"/>
-      <c r="L17" s="69"/>
-      <c r="M17" s="69"/>
-      <c r="N17" s="69"/>
-      <c r="O17" s="69"/>
-      <c r="P17" s="69"/>
-      <c r="Q17" s="69"/>
-      <c r="R17" s="69"/>
-      <c r="S17" s="70"/>
+      <c r="C17" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="54"/>
+      <c r="L17" s="54"/>
+      <c r="M17" s="54"/>
+      <c r="N17" s="54"/>
+      <c r="O17" s="54"/>
+      <c r="P17" s="54"/>
+      <c r="Q17" s="54"/>
+      <c r="R17" s="54"/>
+      <c r="S17" s="55"/>
     </row>
     <row r="18" spans="3:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="71" t="s">
+      <c r="C18" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="72"/>
-      <c r="E18" s="72"/>
-      <c r="F18" s="72"/>
-      <c r="G18" s="72"/>
-      <c r="H18" s="72"/>
-      <c r="I18" s="72"/>
-      <c r="J18" s="72"/>
-      <c r="K18" s="72"/>
-      <c r="L18" s="72"/>
-      <c r="M18" s="72"/>
-      <c r="N18" s="72"/>
-      <c r="O18" s="72"/>
-      <c r="P18" s="72"/>
-      <c r="Q18" s="72"/>
-      <c r="R18" s="72"/>
-      <c r="S18" s="73"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="57"/>
+      <c r="L18" s="57"/>
+      <c r="M18" s="57"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="57"/>
+      <c r="P18" s="57"/>
+      <c r="Q18" s="57"/>
+      <c r="R18" s="57"/>
+      <c r="S18" s="58"/>
       <c r="T18" s="20"/>
       <c r="U18" s="20"/>
       <c r="V18" s="20"/>
     </row>
     <row r="19" spans="3:22" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="68"/>
-      <c r="D19" s="69"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="69"/>
-      <c r="H19" s="69"/>
-      <c r="I19" s="69"/>
-      <c r="J19" s="69"/>
-      <c r="K19" s="69"/>
-      <c r="L19" s="69"/>
-      <c r="M19" s="69"/>
-      <c r="N19" s="69"/>
-      <c r="O19" s="69"/>
-      <c r="P19" s="69"/>
-      <c r="Q19" s="69"/>
-      <c r="R19" s="69"/>
-      <c r="S19" s="70"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="54"/>
+      <c r="K19" s="54"/>
+      <c r="L19" s="54"/>
+      <c r="M19" s="54"/>
+      <c r="N19" s="54"/>
+      <c r="O19" s="54"/>
+      <c r="P19" s="54"/>
+      <c r="Q19" s="54"/>
+      <c r="R19" s="54"/>
+      <c r="S19" s="55"/>
     </row>
     <row r="20" spans="3:22" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="14"/>
@@ -3307,20 +3402,20 @@
       <c r="V22" s="15"/>
     </row>
     <row r="23" spans="3:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C23" s="63" t="s">
+      <c r="C23" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="63"/>
+      <c r="D23" s="46"/>
       <c r="E23" s="17" t="s">
         <v>35</v>
       </c>
       <c r="F23" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="G23" s="64" t="s">
+      <c r="G23" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="H23" s="65"/>
+      <c r="H23" s="48"/>
       <c r="I23" s="16"/>
     </row>
     <row r="26" spans="3:22" x14ac:dyDescent="0.25">
@@ -3349,6 +3444,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="O3:V3"/>
+    <mergeCell ref="T10:V10"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="C7:S7"/>
+    <mergeCell ref="C8:S9"/>
     <mergeCell ref="C26:V26"/>
     <mergeCell ref="C10:G10"/>
     <mergeCell ref="H10:K10"/>
@@ -3365,12 +3466,6 @@
     <mergeCell ref="C16:S16"/>
     <mergeCell ref="C18:S18"/>
     <mergeCell ref="C19:S19"/>
-    <mergeCell ref="O3:V3"/>
-    <mergeCell ref="T10:V10"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="C7:S7"/>
-    <mergeCell ref="C8:S9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -3423,7 +3518,7 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="74" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B2" s="75"/>
       <c r="C2" s="75"/>
@@ -3459,7 +3554,7 @@
     </row>
     <row r="4" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="77" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B4" s="74"/>
       <c r="C4" s="74"/>
@@ -3701,7 +3796,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43EB0D6B-997C-4758-A61A-D08FDF9F26F1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{179B310A-D22A-4E74-B00A-C2B7ADEF6C10}">
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
@@ -3774,7 +3869,7 @@
     </row>
     <row r="4" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="77" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B4" s="74"/>
       <c r="C4" s="74"/>
@@ -4016,7 +4111,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{179B310A-D22A-4E74-B00A-C2B7ADEF6C10}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43EB0D6B-997C-4758-A61A-D08FDF9F26F1}">
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
@@ -4053,7 +4148,7 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="74" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B2" s="75"/>
       <c r="C2" s="75"/>
@@ -4089,7 +4184,7 @@
     </row>
     <row r="4" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="77" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B4" s="74"/>
       <c r="C4" s="74"/>
@@ -4331,14 +4426,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E377A3E9-A013-4535-9877-6E4CF98C4C9A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC1ED48B-309B-4894-9E7E-101D9EA5C796}">
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:O190"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -4368,7 +4463,7 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="74" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B2" s="75"/>
       <c r="C2" s="75"/>
@@ -4404,7 +4499,7 @@
     </row>
     <row r="4" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="77" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B4" s="74"/>
       <c r="C4" s="74"/>
@@ -4653,7 +4748,7 @@
   <dimension ref="A1:O195"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -4683,7 +4778,7 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="74" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="B2" s="75"/>
       <c r="C2" s="75"/>
@@ -4759,7 +4854,7 @@
       <c r="N8" s="29"/>
       <c r="O8" s="29"/>
     </row>
-    <row r="9" spans="1:15" s="24" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" s="24" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="30"/>
     </row>
     <row r="10" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -4976,8 +5071,8 @@
   </sheetPr>
   <dimension ref="A1:O198"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -5007,7 +5102,7 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="74" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="B2" s="75"/>
       <c r="C2" s="75"/>
@@ -5296,13 +5391,325 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E377A3E9-A013-4535-9877-6E4CF98C4C9A}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:O190"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:N4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.28515625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="59" style="5" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="5" customWidth="1"/>
+    <col min="7" max="7" width="25" style="5" customWidth="1"/>
+    <col min="8" max="8" width="28.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" style="5" customWidth="1"/>
+    <col min="10" max="15" width="9.140625" style="5"/>
+    <col min="16" max="16" width="12.7109375" style="5" customWidth="1"/>
+    <col min="17" max="26" width="9.140625" style="5"/>
+    <col min="27" max="27" width="16.140625" style="5" customWidth="1"/>
+    <col min="28" max="29" width="9.140625" style="5"/>
+    <col min="30" max="30" width="12.85546875" style="5" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="74" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="75"/>
+      <c r="N2" s="75"/>
+    </row>
+    <row r="3" spans="1:15" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="76" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="76"/>
+      <c r="N3" s="76"/>
+    </row>
+    <row r="4" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="77" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="74"/>
+      <c r="N4" s="74"/>
+    </row>
+    <row r="6" spans="1:15" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="27"/>
+    </row>
+    <row r="8" spans="1:15" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
+    </row>
+    <row r="9" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:15" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" s="24" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:15" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:15" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="10:10" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="10:10" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="10:10" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J19" s="25"/>
+    </row>
+    <row r="20" spans="10:10" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="10:10" s="24" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="10:10" s="24" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="10:10" s="24" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="10:10" s="24" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="10:10" s="24" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="10:10" s="24" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="10:10" s="24" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="10:10" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="10:10" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="10:10" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="10:10" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="10:10" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" s="24" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="35" s="24" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="36" s="24" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="37" s="24" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="38" s="24" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="39" s="24" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="40" s="24" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="41" s="24" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="42" s="24" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="43" s="24" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="44" s="24" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="45" s="24" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="46" s="24" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="47" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="83" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="84" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="85" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="86" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="87" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="88" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="89" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="90" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="91" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="92" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="93" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="94" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="95" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="96" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="97" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="98" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="99" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="100" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="101" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="102" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="103" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="104" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="105" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="106" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="107" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="108" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="109" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="110" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="111" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="112" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="113" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="114" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="115" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="116" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="117" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="118" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="119" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="120" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="121" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="122" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="123" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="124" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="125" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="126" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="127" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="128" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="129" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="130" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="131" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="132" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="133" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="134" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="135" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="136" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="137" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="138" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="139" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="140" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="141" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="142" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="143" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="144" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="145" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="146" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="147" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="148" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="149" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="150" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="151" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="152" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="153" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="154" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="155" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="156" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="157" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="158" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="159" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="160" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="161" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="162" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="163" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="164" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="165" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="166" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="167" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="168" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="169" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="170" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="171" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="172" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="173" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="174" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="175" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="176" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="177" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="178" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="179" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="180" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="181" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="182" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="183" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="184" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="185" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="186" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="187" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="188" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="189" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="190" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <dataConsolidate/>
+  <mergeCells count="3">
+    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="A3:N3"/>
+    <mergeCell ref="A4:N4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5355,15 +5762,24 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{104F6682-638E-41C9-B86D-9C61515F3EFA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CB4378F-1076-4FCD-8176-ACA22C9C1139}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5384,15 +5800,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CB4378F-1076-4FCD-8176-ACA22C9C1139}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{104F6682-638E-41C9-B86D-9C61515F3EFA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>